--- a/biology/Microbiologie/Pinaciophora/Pinaciophora.xlsx
+++ b/biology/Microbiologie/Pinaciophora/Pinaciophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinaciophora est un genre de l’ordre des Rotosphaerida.
-Faute de données moléculaires, le genre est défini sur des considérations morphologiques et sa position phylogénétique est discutée (entre Cercozoaires[1] et Holomycètes[2],[3]).
+Faute de données moléculaires, le genre est défini sur des considérations morphologiques et sa position phylogénétique est discutée (entre Cercozoaires et Holomycètes,).
 L'espèce type est Pinaciophora fluviatilis.
-Ces amibes hétérotrophes se caractérisent par des cellules uninucléées, non flagellées, avec de très fins filopodes, dépourvues de granules visibles en microscopie optique. Les écailles en forme de plaque tangentielle à deux couches présentent de nombreuses perforations disposées de manière hexagonale sur la couche interne[1]. Le genre Pinaciophora ne dispose que d'écailles plates[1].
+Ces amibes hétérotrophes se caractérisent par des cellules uninucléées, non flagellées, avec de très fins filopodes, dépourvues de granules visibles en microscopie optique. Les écailles en forme de plaque tangentielle à deux couches présentent de nombreuses perforations disposées de manière hexagonale sur la couche interne. Le genre Pinaciophora ne dispose que d'écailles plates.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pinaciophora a été créé en 1869 par le zoologiste allemand Richard Greeff (d) (1829-1892).
 </t>
@@ -545,7 +559,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikrujkov (1999) dénombre les treize espèces suivantes :
 Pinaciophora fluviatilis Greeff, 1869 [syn. : Pinaciocystis duboscqi Roskin, 1929 ; Potamodiscus kalbei Gerloff, 1968]
@@ -563,7 +579,7 @@
 Pinaciophora turrisfenestrata (Wujek et O'Kelly, 1991) comb. n. renommée Eiffelospina turrisfenestrata (Wujek &amp; O’Kelly, 1991) Cavalier-Smith, 2012
 Depuis, l'espèce :
 Pinaciophora marina
-est distinguée de P. fluviatilis[4].
+est distinguée de P. fluviatilis.
 Beaucoup d'espèces ont été transférées vers deux nouveaux genres : Turriplaca Cavalier-Smith, 2012 et Eiffelospina Cavalier-Smith, 2012 (remplaçant le genre Thomseniophora Nicholls, 2012). L'auteur classe ces trois genres dans une famille des Pinaciophoridae Cavalier-Smith, 2012.
 </t>
         </is>
